--- a/Prevalencija_Srednja_vrijednost.xlsx
+++ b/Prevalencija_Srednja_vrijednost.xlsx
@@ -48,7 +48,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,6 +56,12 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -66,7 +72,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -74,12 +80,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,7 +385,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -383,33 +405,33 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>6.51</v>
-      </c>
-      <c r="C2">
-        <v>1.54</v>
+      <c r="B2" s="1">
+        <v>1.1662E-2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3.1949999999999999E-3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C3">
-        <v>0.3</v>
+      <c r="B3" s="1">
+        <v>2.7642E-2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3.9290000000000002E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>2.63</v>
-      </c>
-      <c r="C4">
-        <v>0.37</v>
+      <c r="B4" s="1">
+        <v>6.9706000000000004E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.6146000000000001E-2</v>
       </c>
     </row>
   </sheetData>
